--- a/GATEWAY/A1#111#AFFIDEAXX/AFFIDEA/AffideaHCIS/V.12.0/accreditamento-checklist_V8.2.3-compiled.xlsx
+++ b/GATEWAY/A1#111#AFFIDEAXX/AFFIDEA/AffideaHCIS/V.12.0/accreditamento-checklist_V8.2.3-compiled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\accreditamento-sogei\Aggiornamento documentazione per adeguamento Decreto 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ombretta.bonino\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2318731-A4FB-4AD5-86BB-384BED360CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C777BD-B875-47F1-9845-D9AC2B966910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2790" yWindow="-18960" windowWidth="27555" windowHeight="15660" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="500">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1891,6 +1891,24 @@
   <si>
     <t>Attualmente il LIS non invia direttamente il referto verso FSE perchè inviato da un altro software che si occupa della pubblicazione su FSE. 
 L'esito viene memorizzato su base dati per analisi, monitoraggio e successive verifiche; in caso, è possibile ripetere il processo di creazione e validazione.</t>
+  </si>
+  <si>
+    <t>10:58:23.412</t>
+  </si>
+  <si>
+    <t>5b2f3a5c88c09d8f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.5e6dc01e7b84f7d90421d4ce43ebc027f39bf6f5ae5eca2041ec5aa1aee463dd.53253bb171^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>11:01:25.372</t>
+  </si>
+  <si>
+    <t>340ceee31fadcee9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.446f749183c9cd906ee7680b1305cccbd7db821aee9e191df924e6f98ff26be0.64b0f75900^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2865,6 +2883,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3934,6 +3955,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3946,7 +3970,7 @@
       <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:D3"/>
+      <selection pane="bottomRight" activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10298,12 +10322,20 @@
       <c r="E165" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="F165" s="33"/>
-      <c r="G165" s="33"/>
-      <c r="H165" s="33"/>
-      <c r="I165" s="40"/>
+      <c r="F165" s="33">
+        <v>45730</v>
+      </c>
+      <c r="G165" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="H165" s="33" t="s">
+        <v>498</v>
+      </c>
+      <c r="I165" s="40" t="s">
+        <v>499</v>
+      </c>
       <c r="J165" s="29" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="K165" s="29"/>
       <c r="L165" s="29"/>
@@ -10337,12 +10369,20 @@
       <c r="E166" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="F166" s="33"/>
-      <c r="G166" s="33"/>
-      <c r="H166" s="33"/>
-      <c r="I166" s="40"/>
+      <c r="F166" s="33">
+        <v>45730</v>
+      </c>
+      <c r="G166" s="33" t="s">
+        <v>494</v>
+      </c>
+      <c r="H166" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="I166" s="40" t="s">
+        <v>496</v>
+      </c>
       <c r="J166" s="29" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="K166" s="29"/>
       <c r="L166" s="29"/>
@@ -15964,10 +16004,13 @@
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential</oddFooter>
+  </headerFooter>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{F5F4AC7B-142E-4F14-AD0B-95E75DB6B433}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
@@ -16044,6 +16087,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -17180,6 +17226,9 @@
   <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -18223,6 +18272,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential</oddFooter>
+  </headerFooter>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -18231,6 +18283,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F560B38A5B3C4B41B1895754B1F1A56A" ma:contentTypeVersion="9" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="69dc0f489d46816a4b9bb4a327e14425">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca719f03-9e45-4ef4-9920-d156f53157f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7de9a44ff87fdcabda187bbd662e75de" ns2:_="">
     <xsd:import namespace="ca719f03-9e45-4ef4-9920-d156f53157f2"/>
@@ -18402,15 +18463,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -18422,6 +18474,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61CEF28A-E0A2-4D9D-9130-F7D0F35034F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18435,14 +18495,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
